--- a/assets/excel/Report Anggaran .xlsx
+++ b/assets/excel/Report Anggaran .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t xml:space="preserve">Report Anggaran </t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Luar Negeri</t>
+  </si>
+  <si>
+    <t>5000000000</t>
   </si>
   <si>
     <t>Dalam Negeri</t>
@@ -426,62 +429,58 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>756000000</v>
-      </c>
-      <c r="C4">
-        <v>135149160</v>
-      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4"/>
       <c r="D4">
-        <v>620850840</v>
+        <v>5000000000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1025000000</v>
-      </c>
       <c r="C5">
-        <v>27550000</v>
+        <v>2160000</v>
       </c>
       <c r="D5">
-        <v>997450000</v>
+        <v>4997840000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>21000000</v>
-      </c>
-      <c r="C6">
-        <v>1565000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6"/>
       <c r="D6">
-        <v>19435000</v>
+        <v>5000000000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report Anggaran .xlsx
+++ b/assets/excel/Report Anggaran .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t xml:space="preserve">Report Anggaran </t>
   </si>
@@ -35,13 +35,19 @@
     <t>Luar Negeri</t>
   </si>
   <si>
-    <t>5000000000</t>
+    <t>32000000000</t>
   </si>
   <si>
     <t>Dalam Negeri</t>
   </si>
   <si>
+    <t>55000000000</t>
+  </si>
+  <si>
     <t>Dalam Kota</t>
+  </si>
+  <si>
+    <t>35000000000</t>
   </si>
   <si>
     <t>No. Urut</t>
@@ -432,9 +438,11 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4"/>
+      <c r="C4">
+        <v>23284800</v>
+      </c>
       <c r="D4">
-        <v>5000000000</v>
+        <v>31976715200</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -442,45 +450,45 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2160000</v>
+        <v>723546642</v>
       </c>
       <c r="D5">
-        <v>4997840000</v>
+        <v>54276453358</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6"/>
       <c r="D6">
-        <v>5000000000</v>
+        <v>35000000000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
